--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>KBPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +920,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,22 +1022,28 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1014,11 +1054,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1035,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,34 +1150,36 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1145,8 +1199,14 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,25 +1214,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1192,8 +1252,14 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1326,14 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1379,14 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1328,14 +1408,14 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1352,34 +1432,40 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-200</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1399,8 +1485,14 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,34 +1591,40 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-200</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1540,34 +1644,40 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-200</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1587,8 +1697,14 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,34 +1962,40 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-200</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -1869,8 +2015,14 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,34 +2068,40 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-200</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -1963,60 +2121,72 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,38 +2225,40 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2100,8 +2274,14 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2167,17 +2353,17 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,26 +2433,32 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -2270,11 +2468,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2288,38 +2486,44 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2335,38 +2539,44 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F47" s="3">
         <v>2200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,38 +2910,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>600</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2711,8 +2963,14 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,23 +3009,25 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2796,37 +3058,43 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -2841,10 +3109,16 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2870,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -2885,28 +3159,34 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
@@ -2917,19 +3197,19 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
@@ -2937,8 +3217,14 @@
       <c r="Q60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,23 +3482,29 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
@@ -3199,19 +3515,19 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
         <v>300</v>
       </c>
       <c r="N66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>200</v>
@@ -3219,8 +3535,14 @@
       <c r="Q66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,38 +3662,44 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
         <v>2600</v>
       </c>
-      <c r="H70" s="3">
+      <c r="J70" s="3">
         <v>1900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>1300</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>900</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,43 +3768,49 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-32900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-32800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-32600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-32500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-32500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-32400</v>
       </c>
       <c r="L72" s="3">
         <v>-32400</v>
       </c>
       <c r="M72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="N72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="O72" s="3">
         <v>-32300</v>
@@ -3471,10 +3819,16 @@
         <v>-32300</v>
       </c>
       <c r="Q72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="S72" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,34 +3980,40 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-300</v>
       </c>
       <c r="L76" s="3">
         <v>-300</v>
@@ -3650,10 +4022,10 @@
         <v>-300</v>
       </c>
       <c r="N76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -3661,8 +4033,14 @@
       <c r="Q76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,86 +4086,98 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-200</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -3807,8 +4197,14 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,31 +4536,37 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,38 +4769,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +5055,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4578,29 +5070,29 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>400</v>
+      </c>
+      <c r="H100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4616,8 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,13 +5161,19 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
@@ -4678,23 +5182,23 @@
         <v>200</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>200</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>KBPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,26 +1045,29 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1080,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,28 +1178,29 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1182,7 +1209,7 @@
         <v>100</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,19 +1244,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1235,7 +1265,7 @@
         <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1414,11 +1454,11 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1438,28 +1478,31 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
@@ -1468,7 +1511,7 @@
         <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,28 +1646,31 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
@@ -1627,7 +1679,7 @@
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1650,28 +1702,31 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
@@ -1680,7 +1735,7 @@
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,28 +2038,31 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
@@ -1998,7 +2071,7 @@
         <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,28 +2150,31 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
@@ -2104,7 +2183,7 @@
         <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2359,14 +2452,14 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2450,18 +2549,18 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
         <v>700</v>
-      </c>
-      <c r="G46" s="3">
-        <v>500</v>
       </c>
       <c r="H46" s="3">
         <v>500</v>
       </c>
       <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2545,41 +2647,44 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E47" s="3">
         <v>2900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>3000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>600</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,13 +3154,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3090,14 +3224,14 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3115,10 +3249,13 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3150,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -3165,30 +3302,33 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -3203,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
@@ -3212,7 +3352,7 @@
         <v>300</v>
       </c>
       <c r="P60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>200</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,25 +3643,28 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -3521,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
@@ -3530,7 +3688,7 @@
         <v>300</v>
       </c>
       <c r="P66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q66" s="3">
         <v>200</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3680,7 +3848,7 @@
         <v>100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3689,20 +3857,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>2600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>1900</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>900</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,37 +3945,40 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="E72" s="3">
         <v>-33400</v>
       </c>
       <c r="F72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-33000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-32500</v>
       </c>
       <c r="K72" s="3">
         <v>-32500</v>
       </c>
       <c r="L72" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="M72" s="3">
         <v>-32400</v>
@@ -3813,7 +3987,7 @@
         <v>-32400</v>
       </c>
       <c r="O72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="P72" s="3">
         <v>-32300</v>
@@ -3825,10 +3999,13 @@
         <v>-32300</v>
       </c>
       <c r="S72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="T72" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,37 +4169,40 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-300</v>
@@ -4028,7 +4214,7 @@
         <v>-300</v>
       </c>
       <c r="P76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-200</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,86 +4281,92 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
@@ -4180,7 +4375,7 @@
         <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,34 +4756,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-700</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,41 +5002,44 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-500</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
       </c>
       <c r="K94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>900</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
       </c>
       <c r="G100" s="3">
         <v>400</v>
       </c>
       <c r="H100" s="3">
+        <v>400</v>
+      </c>
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,41 +5416,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>KBPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,18 +1078,18 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1102,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,31 +1204,32 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1212,7 +1238,7 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,22 +1273,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1268,7 +1297,7 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1457,11 +1496,11 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1481,31 +1520,34 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>-100</v>
@@ -1514,7 +1556,7 @@
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,31 +1697,34 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
@@ -1682,7 +1733,7 @@
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1705,31 +1756,34 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
@@ -1738,7 +1792,7 @@
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2041,31 +2110,34 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>-100</v>
@@ -2074,7 +2146,7 @@
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,31 +2228,34 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>-100</v>
@@ -2186,7 +2264,7 @@
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,44 +2399,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2455,14 +2547,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,13 +2633,16 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>4</v>
@@ -2552,18 +2650,18 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2576,8 +2674,8 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
@@ -2594,44 +2692,47 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>500</v>
       </c>
       <c r="I46" s="3">
         <v>500</v>
       </c>
       <c r="J46" s="3">
+        <v>500</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2650,44 +2751,47 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E47" s="3">
         <v>3900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,44 +3164,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3271,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3157,13 +3287,13 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3227,14 +3360,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
@@ -3252,10 +3385,13 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3290,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -3305,13 +3441,16 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,19 +3458,19 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -3346,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>300</v>
@@ -3355,7 +3494,7 @@
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,19 +3812,19 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -3682,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>300</v>
@@ -3691,7 +3848,7 @@
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3860,20 +4027,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>2600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>900</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3957,31 +4130,31 @@
         <v>-33100</v>
       </c>
       <c r="E72" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="F72" s="3">
         <v>-33400</v>
       </c>
       <c r="G72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-33000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32600</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-32500</v>
       </c>
       <c r="L72" s="3">
         <v>-32500</v>
       </c>
       <c r="M72" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="N72" s="3">
         <v>-32400</v>
@@ -3990,7 +4163,7 @@
         <v>-32400</v>
       </c>
       <c r="P72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="Q72" s="3">
         <v>-32300</v>
@@ -4002,10 +4175,13 @@
         <v>-32300</v>
       </c>
       <c r="T72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="U72" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,40 +4354,43 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-300</v>
       </c>
       <c r="N76" s="3">
         <v>-300</v>
@@ -4217,7 +4402,7 @@
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-200</v>
@@ -4228,8 +4413,11 @@
       <c r="T76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,92 +4472,98 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>-100</v>
@@ -4378,7 +4572,7 @@
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,37 +4972,40 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-700</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,44 +5231,47 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-500</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
       </c>
       <c r="L94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,44 +5549,47 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>400</v>
+      </c>
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,44 +5667,47 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>KBPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,13 +1084,16 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-1200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1081,18 +1101,18 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1105,8 +1125,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,34 +1231,35 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1241,7 +1268,7 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1300,7 +1330,7 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,11 +1389,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,13 +1501,16 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1499,11 +1539,11 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1523,34 +1563,37 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
@@ -1559,7 +1602,7 @@
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,34 +1749,37 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
@@ -1736,7 +1788,7 @@
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1759,34 +1811,37 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
@@ -1795,7 +1850,7 @@
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,11 +2133,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2113,34 +2183,37 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
@@ -2149,7 +2222,7 @@
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,34 +2307,37 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
@@ -2267,7 +2346,7 @@
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,47 +2486,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2550,14 +2643,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,16 +2732,19 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2653,18 +2752,18 @@
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2677,8 +2776,8 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2695,47 +2794,50 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>100</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>700</v>
-      </c>
-      <c r="I46" s="3">
-        <v>500</v>
       </c>
       <c r="J46" s="3">
         <v>500</v>
       </c>
       <c r="K46" s="3">
+        <v>500</v>
+      </c>
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2754,47 +2856,50 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E47" s="3">
         <v>5900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>400</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,47 +3290,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,17 +3402,18 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
@@ -3290,13 +3421,13 @@
         <v>0</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3331,13 +3462,16 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3348,8 +3482,8 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3363,14 +3497,14 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3388,33 +3522,36 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3429,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -3444,36 +3581,39 @@
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3488,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
@@ -3497,7 +3637,7 @@
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,31 +3958,34 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3842,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
@@ -3851,7 +4009,7 @@
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>200</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4021,7 +4189,7 @@
         <v>100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -4030,20 +4198,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>2600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>900</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,43 +4292,46 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-33100</v>
+        <v>-33000</v>
       </c>
       <c r="E72" s="3">
         <v>-33100</v>
       </c>
       <c r="F72" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="G72" s="3">
         <v>-33400</v>
       </c>
       <c r="H72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-33000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32600</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-32500</v>
       </c>
       <c r="M72" s="3">
         <v>-32500</v>
       </c>
       <c r="N72" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="O72" s="3">
         <v>-32400</v>
@@ -4166,7 +4340,7 @@
         <v>-32400</v>
       </c>
       <c r="Q72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="R72" s="3">
         <v>-32300</v>
@@ -4178,10 +4352,13 @@
         <v>-32300</v>
       </c>
       <c r="U72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="V72" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,43 +4540,46 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-300</v>
       </c>
       <c r="O76" s="3">
         <v>-300</v>
@@ -4405,7 +4591,7 @@
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-200</v>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,98 +4664,104 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
@@ -4575,7 +4770,7 @@
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,40 +5189,43 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-700</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5245,36 +5475,36 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-500</v>
       </c>
       <c r="L94" s="3">
         <v>-500</v>
       </c>
       <c r="M94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,47 +5795,50 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>400</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>400</v>
+      </c>
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,47 +5919,50 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>KBPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,13 +1121,19 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>-1200</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1104,20 +1144,20 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>100</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1128,11 +1168,11 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,49 +1284,51 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1294,8 +1348,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,40 +1363,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1356,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,17 +1457,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1442,19 +1510,25 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1462,8 +1536,8 @@
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1504,19 +1578,25 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1542,14 +1622,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,49 +1646,55 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1628,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,49 +1850,55 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1814,49 +1918,55 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1876,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,17 +2273,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2186,49 +2326,55 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2248,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,49 +2462,55 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2372,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2659,55 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>500</v>
+      </c>
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2549,8 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,16 +2791,22 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2646,17 +2832,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2744,32 +2942,32 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2779,11 +2977,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2797,53 +2995,59 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="F46" s="3">
         <v>1600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -2859,53 +3063,59 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F47" s="3">
         <v>6800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>5900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>3900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3539,59 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F54" s="3">
         <v>8400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
       <c r="R54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3607,14 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,38 +3663,40 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -3465,31 +3727,37 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3500,17 +3768,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3525,39 +3793,45 @@
         <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3569,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
@@ -3584,43 +3858,49 @@
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+      <c r="W59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
@@ -3631,19 +3911,19 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>300</v>
       </c>
       <c r="S60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,38 +4271,44 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
       <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
@@ -4003,19 +4319,19 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>300</v>
       </c>
       <c r="S66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
@@ -4023,8 +4339,14 @@
       <c r="V66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4192,32 +4528,32 @@
         <v>100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>2600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>1900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>1300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>900</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,58 +4637,64 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-33300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-33000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-33100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-33100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-33400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-33400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-33000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-32900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-32800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-32600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-32500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-32500</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-32400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-32400</v>
       </c>
       <c r="Q72" s="3">
         <v>-32400</v>
       </c>
       <c r="R72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="S72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="T72" s="3">
         <v>-32300</v>
@@ -4355,10 +4703,16 @@
         <v>-32300</v>
       </c>
       <c r="V72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="X72" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,49 +4909,55 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F76" s="3">
         <v>6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-300</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
@@ -4594,10 +4966,10 @@
         <v>-300</v>
       </c>
       <c r="S76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="T76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -4605,8 +4977,14 @@
       <c r="V76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,116 +5045,128 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>1000</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4796,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,46 +5620,52 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>400</v>
+        <v>-1400</v>
       </c>
       <c r="E89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5478,39 +5938,39 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5986,14 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,53 +6284,59 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>500</v>
+        <v>1300</v>
       </c>
       <c r="E100" s="3">
+        <v>700</v>
+      </c>
+      <c r="F100" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G100" s="3">
         <v>2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>900</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>1900</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>400</v>
+      </c>
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,28 +6420,34 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>200</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -5952,23 +6456,23 @@
         <v>200</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KBPH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>KBPH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,18 +1169,18 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1174,8 +1193,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,34 +1321,34 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1331,7 +1357,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,34 +1392,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1399,7 +1428,7 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,20 +1490,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,22 +1561,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1584,19 +1620,22 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1628,11 +1667,11 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1652,43 +1691,46 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
@@ -1697,7 +1739,7 @@
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,43 +1904,46 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
@@ -1901,7 +1952,7 @@
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
@@ -1924,43 +1975,46 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
@@ -1969,7 +2023,7 @@
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,20 +2342,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2332,43 +2401,46 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
@@ -2377,7 +2449,7 @@
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,43 +2543,46 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
@@ -2513,7 +2591,7 @@
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,56 +2746,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2808,8 +2900,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2838,14 +2930,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,13 +3028,16 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2948,10 +3046,10 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -2959,18 +3057,18 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3081,8 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -3001,56 +3099,59 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>500</v>
       </c>
       <c r="N46" s="3">
+        <v>500</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3069,56 +3170,59 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E47" s="3">
         <v>10400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>5900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>3900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>400</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,56 +3667,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3674,17 +3804,17 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3692,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3747,8 +3880,8 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3756,11 +3889,11 @@
       <c r="I58" s="3">
         <v>0</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3774,14 +3907,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>100</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3799,10 +3932,13 @@
         <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,28 +3949,28 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3849,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
@@ -3864,45 +4000,48 @@
         <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -3917,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>300</v>
@@ -3926,7 +4065,7 @@
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,40 +4431,43 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -4325,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>300</v>
@@ -4334,7 +4491,7 @@
         <v>300</v>
       </c>
       <c r="U66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4534,7 +4701,7 @@
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4543,20 +4710,20 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>2600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1300</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>900</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,52 +4813,55 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-32300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-33300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33000</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-33100</v>
       </c>
       <c r="H72" s="3">
         <v>-33100</v>
       </c>
       <c r="I72" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="J72" s="3">
         <v>-33400</v>
       </c>
       <c r="K72" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-33000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32600</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-32500</v>
       </c>
       <c r="P72" s="3">
         <v>-32500</v>
       </c>
       <c r="Q72" s="3">
-        <v>-32400</v>
+        <v>-32500</v>
       </c>
       <c r="R72" s="3">
         <v>-32400</v>
@@ -4697,7 +4870,7 @@
         <v>-32400</v>
       </c>
       <c r="T72" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="U72" s="3">
         <v>-32300</v>
@@ -4709,10 +4882,13 @@
         <v>-32300</v>
       </c>
       <c r="X72" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-32200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,52 +5097,55 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E76" s="3">
         <v>10700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-300</v>
@@ -4972,7 +5157,7 @@
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-200</v>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,116 +5239,122 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
@@ -5169,7 +5363,7 @@
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,40 +5851,40 @@
         <v>-1400</v>
       </c>
       <c r="E89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5944,36 +6173,36 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-500</v>
       </c>
       <c r="O94" s="3">
         <v>-500</v>
       </c>
       <c r="P94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,56 +6532,59 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1300</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1900</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>400</v>
+      </c>
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,56 +6674,59 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
